--- a/testdata/test_data_infos.xlsx
+++ b/testdata/test_data_infos.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10730"/>
+    <workbookView windowWidth="20930" windowHeight="10730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="1" r:id="rId1"/>
+    <sheet name="main_suite" sheetId="2" r:id="rId2"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>测试方法</t>
   </si>
@@ -46,13 +48,13 @@
     <t>LoginCase</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>username=admin</t>
-  </si>
-  <si>
-    <t>password=DENGdaxin12</t>
+    <t>是</t>
+  </si>
+  <si>
+    <t>username=test01</t>
+  </si>
+  <si>
+    <t>password=newdream123</t>
   </si>
   <si>
     <t>test_login_fail</t>
@@ -61,10 +63,37 @@
     <t>登录失败测试</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>password=123</t>
+  </si>
+  <si>
+    <t>test_quit</t>
+  </si>
+  <si>
+    <t>退出登录测试</t>
+  </si>
+  <si>
+    <t>QuitCase</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>test_create_bug</t>
+  </si>
+  <si>
+    <t>创建bug测试</t>
+  </si>
+  <si>
+    <t>CreateBugCase</t>
+  </si>
+  <si>
+    <t>title=自动化创建</t>
+  </si>
+  <si>
+    <t>content=描述</t>
+  </si>
+  <si>
+    <t>datatime=2021-08-30</t>
   </si>
 </sst>
 </file>
@@ -73,11 +102,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,97 +115,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.8"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,8 +220,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -224,7 +252,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,13 +274,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,19 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,145 +442,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,32 +483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -485,15 +494,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,159 +530,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1004,8 +1040,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1073,13 +1109,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1091,4 +1127,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="20.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>